--- a/documentacion desarrollado/clases - diccionario de datos.xlsx
+++ b/documentacion desarrollado/clases - diccionario de datos.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\adsi\proyecto\documentacion desarrollado\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{601DE8C7-FA4B-48B8-B8FE-A76E0D59EAB4}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C9EC724C-099F-43EE-A1C7-558B8D71FE29}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="10005" yWindow="1170" windowWidth="12555" windowHeight="14385" xr2:uid="{2FF41D06-D61B-4223-A4A5-12A9AB68D76C}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" activeTab="1" xr2:uid="{2FF41D06-D61B-4223-A4A5-12A9AB68D76C}"/>
   </bookViews>
   <sheets>
     <sheet name="Diccionario de datos" sheetId="1" r:id="rId1"/>
@@ -35,7 +35,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1721" uniqueCount="898">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1728" uniqueCount="905">
   <si>
     <t>Microservicio Autenticación</t>
   </si>
@@ -2946,6 +2946,27 @@
   </si>
   <si>
     <t>varchar (45)</t>
+  </si>
+  <si>
+    <t>Servicios</t>
+  </si>
+  <si>
+    <t>Examen Ocupacional completo</t>
+  </si>
+  <si>
+    <t>Examen Medicina Ocupacional</t>
+  </si>
+  <si>
+    <t>Examen de Laboratorio</t>
+  </si>
+  <si>
+    <t>Examen Fonoaudiología Ocupacional</t>
+  </si>
+  <si>
+    <t>Examen Optometría Ocupacional</t>
+  </si>
+  <si>
+    <t>Examen Psicología Ocupacional</t>
   </si>
 </sst>
 </file>
@@ -3233,7 +3254,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="44" fontId="6" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="117">
+  <cellXfs count="119">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1"/>
@@ -3316,38 +3337,35 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="14" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="12" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="13" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="14" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="15" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="16" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="17" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -3359,9 +3377,6 @@
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="14" xfId="0" applyBorder="1" applyAlignment="1">
@@ -3376,16 +3391,37 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="17" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="15" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="16" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="17" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="14" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -3397,113 +3433,32 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="13" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="15" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="16" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="17" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="12" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="13" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="15" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="16" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="17" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="14" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="16" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="17" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="16" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="17" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
@@ -3512,6 +3467,21 @@
       <alignment horizontal="left"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="14" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="17" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="15" xfId="0" applyBorder="1" applyAlignment="1">
@@ -3526,21 +3496,74 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="16" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="17" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="16" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Moneda" xfId="1" builtinId="4"/>
@@ -3858,7 +3881,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{9CFD759A-78F0-4F71-BCD0-F7C29157BD1F}">
   <dimension ref="B3:BB130"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" topLeftCell="U10" zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
+    <sheetView showGridLines="0" topLeftCell="U10" zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
       <selection activeCell="V26" sqref="V26"/>
     </sheetView>
   </sheetViews>
@@ -3905,242 +3928,242 @@
   <sheetData>
     <row r="3" spans="2:54" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
     <row r="4" spans="2:54" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B4" s="50" t="s">
+      <c r="B4" s="65" t="s">
         <v>0</v>
       </c>
-      <c r="C4" s="51"/>
-      <c r="D4" s="51"/>
-      <c r="E4" s="51"/>
-      <c r="F4" s="51"/>
-      <c r="G4" s="51"/>
-      <c r="H4" s="51"/>
-      <c r="I4" s="51"/>
-      <c r="J4" s="51"/>
-      <c r="K4" s="51"/>
-      <c r="L4" s="51"/>
-      <c r="M4" s="51"/>
-      <c r="N4" s="51"/>
-      <c r="O4" s="51"/>
-      <c r="P4" s="51"/>
-      <c r="Q4" s="51"/>
-      <c r="R4" s="51"/>
-      <c r="S4" s="51"/>
-      <c r="T4" s="52"/>
-      <c r="V4" s="50" t="s">
+      <c r="C4" s="66"/>
+      <c r="D4" s="66"/>
+      <c r="E4" s="66"/>
+      <c r="F4" s="66"/>
+      <c r="G4" s="66"/>
+      <c r="H4" s="66"/>
+      <c r="I4" s="66"/>
+      <c r="J4" s="66"/>
+      <c r="K4" s="66"/>
+      <c r="L4" s="66"/>
+      <c r="M4" s="66"/>
+      <c r="N4" s="66"/>
+      <c r="O4" s="66"/>
+      <c r="P4" s="66"/>
+      <c r="Q4" s="66"/>
+      <c r="R4" s="66"/>
+      <c r="S4" s="66"/>
+      <c r="T4" s="67"/>
+      <c r="V4" s="65" t="s">
         <v>33</v>
       </c>
-      <c r="W4" s="51"/>
-      <c r="X4" s="51"/>
-      <c r="Y4" s="52"/>
-      <c r="AA4" s="50" t="s">
+      <c r="W4" s="66"/>
+      <c r="X4" s="66"/>
+      <c r="Y4" s="67"/>
+      <c r="AA4" s="65" t="s">
         <v>145</v>
       </c>
-      <c r="AB4" s="51"/>
-      <c r="AC4" s="51"/>
-      <c r="AD4" s="52"/>
-      <c r="AF4" s="50" t="s">
+      <c r="AB4" s="66"/>
+      <c r="AC4" s="66"/>
+      <c r="AD4" s="67"/>
+      <c r="AF4" s="65" t="s">
         <v>210</v>
       </c>
-      <c r="AG4" s="51"/>
-      <c r="AH4" s="51"/>
-      <c r="AI4" s="52"/>
-      <c r="AK4" s="50" t="s">
+      <c r="AG4" s="66"/>
+      <c r="AH4" s="66"/>
+      <c r="AI4" s="67"/>
+      <c r="AK4" s="65" t="s">
         <v>235</v>
       </c>
-      <c r="AL4" s="51"/>
-      <c r="AM4" s="51"/>
-      <c r="AN4" s="52"/>
-      <c r="AP4" s="77" t="s">
+      <c r="AL4" s="66"/>
+      <c r="AM4" s="66"/>
+      <c r="AN4" s="67"/>
+      <c r="AP4" s="68" t="s">
         <v>298</v>
       </c>
-      <c r="AQ4" s="78"/>
-      <c r="AR4" s="78"/>
-      <c r="AS4" s="79"/>
+      <c r="AQ4" s="69"/>
+      <c r="AR4" s="69"/>
+      <c r="AS4" s="70"/>
       <c r="AU4" s="10" t="s">
         <v>312</v>
       </c>
-      <c r="AW4" s="50" t="s">
+      <c r="AW4" s="65" t="s">
         <v>319</v>
       </c>
-      <c r="AX4" s="51"/>
-      <c r="AY4" s="51"/>
-      <c r="AZ4" s="52"/>
+      <c r="AX4" s="66"/>
+      <c r="AY4" s="66"/>
+      <c r="AZ4" s="67"/>
       <c r="BB4" s="10" t="s">
         <v>793</v>
       </c>
     </row>
     <row r="5" spans="2:54" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
     <row r="6" spans="2:54" x14ac:dyDescent="0.25">
-      <c r="B6" s="69" t="s">
+      <c r="B6" s="77" t="s">
         <v>1</v>
       </c>
-      <c r="C6" s="45" t="s">
+      <c r="C6" s="60" t="s">
         <v>340</v>
       </c>
-      <c r="D6" s="45" t="s">
+      <c r="D6" s="60" t="s">
         <v>341</v>
       </c>
-      <c r="E6" s="45" t="s">
+      <c r="E6" s="60" t="s">
         <v>347</v>
       </c>
       <c r="F6" s="5"/>
-      <c r="G6" s="69" t="s">
+      <c r="G6" s="77" t="s">
         <v>2</v>
       </c>
-      <c r="H6" s="45" t="s">
+      <c r="H6" s="60" t="s">
         <v>340</v>
       </c>
-      <c r="I6" s="45" t="s">
+      <c r="I6" s="60" t="s">
         <v>341</v>
       </c>
-      <c r="J6" s="45" t="s">
+      <c r="J6" s="60" t="s">
         <v>347</v>
       </c>
       <c r="K6" s="5"/>
-      <c r="L6" s="69" t="s">
+      <c r="L6" s="77" t="s">
         <v>3</v>
       </c>
-      <c r="M6" s="45" t="s">
+      <c r="M6" s="60" t="s">
         <v>340</v>
       </c>
-      <c r="N6" s="45" t="s">
+      <c r="N6" s="60" t="s">
         <v>341</v>
       </c>
-      <c r="O6" s="45" t="s">
+      <c r="O6" s="60" t="s">
         <v>347</v>
       </c>
       <c r="P6" s="5"/>
-      <c r="Q6" s="71" t="s">
+      <c r="Q6" s="43" t="s">
         <v>790</v>
       </c>
-      <c r="R6" s="72"/>
-      <c r="S6" s="72"/>
-      <c r="T6" s="73"/>
-      <c r="V6" s="45" t="s">
+      <c r="R6" s="44"/>
+      <c r="S6" s="44"/>
+      <c r="T6" s="45"/>
+      <c r="V6" s="60" t="s">
         <v>34</v>
       </c>
-      <c r="W6" s="45" t="s">
+      <c r="W6" s="60" t="s">
         <v>340</v>
       </c>
-      <c r="X6" s="45" t="s">
+      <c r="X6" s="60" t="s">
         <v>341</v>
       </c>
-      <c r="Y6" s="45" t="s">
+      <c r="Y6" s="60" t="s">
         <v>347</v>
       </c>
-      <c r="AA6" s="45" t="s">
+      <c r="AA6" s="60" t="s">
         <v>146</v>
       </c>
-      <c r="AB6" s="45" t="s">
+      <c r="AB6" s="60" t="s">
         <v>340</v>
       </c>
-      <c r="AC6" s="45" t="s">
+      <c r="AC6" s="60" t="s">
         <v>341</v>
       </c>
-      <c r="AD6" s="45" t="s">
+      <c r="AD6" s="60" t="s">
         <v>347</v>
       </c>
-      <c r="AF6" s="45" t="s">
+      <c r="AF6" s="60" t="s">
         <v>211</v>
       </c>
-      <c r="AG6" s="45" t="s">
+      <c r="AG6" s="60" t="s">
         <v>340</v>
       </c>
-      <c r="AH6" s="45" t="s">
+      <c r="AH6" s="60" t="s">
         <v>341</v>
       </c>
-      <c r="AI6" s="45" t="s">
+      <c r="AI6" s="60" t="s">
         <v>347</v>
       </c>
-      <c r="AK6" s="45" t="s">
+      <c r="AK6" s="60" t="s">
         <v>236</v>
       </c>
-      <c r="AL6" s="45" t="s">
+      <c r="AL6" s="60" t="s">
         <v>340</v>
       </c>
-      <c r="AM6" s="45" t="s">
+      <c r="AM6" s="60" t="s">
         <v>341</v>
       </c>
-      <c r="AN6" s="45" t="s">
+      <c r="AN6" s="60" t="s">
         <v>347</v>
       </c>
-      <c r="AP6" s="45" t="s">
+      <c r="AP6" s="60" t="s">
         <v>299</v>
       </c>
-      <c r="AQ6" s="45" t="s">
+      <c r="AQ6" s="60" t="s">
         <v>340</v>
       </c>
-      <c r="AR6" s="45" t="s">
+      <c r="AR6" s="60" t="s">
         <v>341</v>
       </c>
-      <c r="AS6" s="45" t="s">
+      <c r="AS6" s="60" t="s">
         <v>347</v>
       </c>
-      <c r="AU6" s="45" t="s">
+      <c r="AU6" s="60" t="s">
         <v>313</v>
       </c>
-      <c r="AW6" s="45" t="s">
+      <c r="AW6" s="60" t="s">
         <v>320</v>
       </c>
-      <c r="AX6" s="45" t="s">
+      <c r="AX6" s="60" t="s">
         <v>340</v>
       </c>
-      <c r="AY6" s="45" t="s">
+      <c r="AY6" s="60" t="s">
         <v>341</v>
       </c>
-      <c r="AZ6" s="45" t="s">
+      <c r="AZ6" s="60" t="s">
         <v>347</v>
       </c>
-      <c r="BB6" s="45" t="s">
+      <c r="BB6" s="60" t="s">
         <v>1</v>
       </c>
     </row>
     <row r="7" spans="2:54" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B7" s="70"/>
-      <c r="C7" s="65"/>
-      <c r="D7" s="65"/>
-      <c r="E7" s="65"/>
+      <c r="B7" s="78"/>
+      <c r="C7" s="79"/>
+      <c r="D7" s="79"/>
+      <c r="E7" s="79"/>
       <c r="F7" s="5"/>
-      <c r="G7" s="70"/>
-      <c r="H7" s="46"/>
-      <c r="I7" s="46"/>
-      <c r="J7" s="46"/>
+      <c r="G7" s="78"/>
+      <c r="H7" s="61"/>
+      <c r="I7" s="61"/>
+      <c r="J7" s="61"/>
       <c r="K7" s="5"/>
-      <c r="L7" s="70"/>
-      <c r="M7" s="46"/>
-      <c r="N7" s="46"/>
-      <c r="O7" s="46"/>
+      <c r="L7" s="78"/>
+      <c r="M7" s="61"/>
+      <c r="N7" s="61"/>
+      <c r="O7" s="61"/>
       <c r="P7" s="5"/>
-      <c r="Q7" s="74"/>
-      <c r="R7" s="75"/>
-      <c r="S7" s="75"/>
-      <c r="T7" s="76"/>
-      <c r="V7" s="46"/>
-      <c r="W7" s="46"/>
-      <c r="X7" s="46"/>
-      <c r="Y7" s="46"/>
-      <c r="AA7" s="46"/>
-      <c r="AB7" s="46"/>
-      <c r="AC7" s="46"/>
-      <c r="AD7" s="46"/>
-      <c r="AF7" s="46"/>
-      <c r="AG7" s="46"/>
-      <c r="AH7" s="46"/>
-      <c r="AI7" s="46"/>
-      <c r="AK7" s="46"/>
-      <c r="AL7" s="46"/>
-      <c r="AM7" s="46"/>
-      <c r="AN7" s="46"/>
-      <c r="AP7" s="46"/>
-      <c r="AQ7" s="46"/>
-      <c r="AR7" s="46"/>
-      <c r="AS7" s="46"/>
-      <c r="AU7" s="65"/>
-      <c r="AW7" s="46"/>
-      <c r="AX7" s="46"/>
-      <c r="AY7" s="46"/>
-      <c r="AZ7" s="46"/>
-      <c r="BB7" s="65"/>
+      <c r="Q7" s="49"/>
+      <c r="R7" s="50"/>
+      <c r="S7" s="50"/>
+      <c r="T7" s="51"/>
+      <c r="V7" s="61"/>
+      <c r="W7" s="61"/>
+      <c r="X7" s="61"/>
+      <c r="Y7" s="61"/>
+      <c r="AA7" s="61"/>
+      <c r="AB7" s="61"/>
+      <c r="AC7" s="61"/>
+      <c r="AD7" s="61"/>
+      <c r="AF7" s="61"/>
+      <c r="AG7" s="61"/>
+      <c r="AH7" s="61"/>
+      <c r="AI7" s="61"/>
+      <c r="AK7" s="61"/>
+      <c r="AL7" s="61"/>
+      <c r="AM7" s="61"/>
+      <c r="AN7" s="61"/>
+      <c r="AP7" s="61"/>
+      <c r="AQ7" s="61"/>
+      <c r="AR7" s="61"/>
+      <c r="AS7" s="61"/>
+      <c r="AU7" s="79"/>
+      <c r="AW7" s="61"/>
+      <c r="AX7" s="61"/>
+      <c r="AY7" s="61"/>
+      <c r="AZ7" s="61"/>
+      <c r="BB7" s="79"/>
     </row>
     <row r="8" spans="2:54" x14ac:dyDescent="0.25">
       <c r="B8" s="40" t="s">
@@ -4181,16 +4204,16 @@
         <v>821</v>
       </c>
       <c r="P8" s="1"/>
-      <c r="Q8" s="45" t="s">
+      <c r="Q8" s="60" t="s">
         <v>790</v>
       </c>
-      <c r="R8" s="45" t="s">
+      <c r="R8" s="60" t="s">
         <v>340</v>
       </c>
-      <c r="S8" s="45" t="s">
+      <c r="S8" s="60" t="s">
         <v>341</v>
       </c>
-      <c r="T8" s="45" t="s">
+      <c r="T8" s="60" t="s">
         <v>347</v>
       </c>
       <c r="V8" s="2" t="s">
@@ -4307,10 +4330,10 @@
         <v>466</v>
       </c>
       <c r="P9" s="1"/>
-      <c r="Q9" s="46"/>
-      <c r="R9" s="46"/>
-      <c r="S9" s="46"/>
-      <c r="T9" s="46"/>
+      <c r="Q9" s="61"/>
+      <c r="R9" s="61"/>
+      <c r="S9" s="61"/>
+      <c r="T9" s="61"/>
       <c r="V9" s="3" t="s">
         <v>36</v>
       </c>
@@ -5055,10 +5078,10 @@
         <v>835</v>
       </c>
       <c r="P15" s="1"/>
-      <c r="Q15" s="53"/>
-      <c r="R15" s="54"/>
-      <c r="S15" s="54"/>
-      <c r="T15" s="55"/>
+      <c r="Q15" s="52"/>
+      <c r="R15" s="53"/>
+      <c r="S15" s="53"/>
+      <c r="T15" s="54"/>
       <c r="V15" s="3" t="s">
         <v>41</v>
       </c>
@@ -5173,10 +5196,10 @@
         <v>838</v>
       </c>
       <c r="P16" s="1"/>
-      <c r="Q16" s="56"/>
-      <c r="R16" s="57"/>
-      <c r="S16" s="57"/>
-      <c r="T16" s="58"/>
+      <c r="Q16" s="55"/>
+      <c r="R16" s="42"/>
+      <c r="S16" s="42"/>
+      <c r="T16" s="56"/>
       <c r="V16" s="3" t="s">
         <v>42</v>
       </c>
@@ -5225,12 +5248,12 @@
       <c r="AN16" s="6" t="s">
         <v>475</v>
       </c>
-      <c r="AP16" s="66" t="s">
+      <c r="AP16" s="71" t="s">
         <v>143</v>
       </c>
-      <c r="AQ16" s="67"/>
-      <c r="AR16" s="67"/>
-      <c r="AS16" s="68"/>
+      <c r="AQ16" s="72"/>
+      <c r="AR16" s="72"/>
+      <c r="AS16" s="73"/>
       <c r="AU16" s="7" t="s">
         <v>143</v>
       </c>
@@ -5289,10 +5312,10 @@
         <v>466</v>
       </c>
       <c r="P17" s="1"/>
-      <c r="Q17" s="56"/>
-      <c r="R17" s="57"/>
-      <c r="S17" s="57"/>
-      <c r="T17" s="58"/>
+      <c r="Q17" s="55"/>
+      <c r="R17" s="42"/>
+      <c r="S17" s="42"/>
+      <c r="T17" s="56"/>
       <c r="V17" s="3" t="s">
         <v>43</v>
       </c>
@@ -5341,12 +5364,12 @@
       <c r="AN17" s="6" t="s">
         <v>475</v>
       </c>
-      <c r="AP17" s="42" t="s">
+      <c r="AP17" s="62" t="s">
         <v>33</v>
       </c>
-      <c r="AQ17" s="43"/>
-      <c r="AR17" s="43"/>
-      <c r="AS17" s="44"/>
+      <c r="AQ17" s="63"/>
+      <c r="AR17" s="63"/>
+      <c r="AS17" s="64"/>
       <c r="AU17" s="6" t="s">
         <v>30</v>
       </c>
@@ -5405,12 +5428,12 @@
         <v>466</v>
       </c>
       <c r="P18" s="1"/>
-      <c r="Q18" s="59" t="s">
+      <c r="Q18" s="57" t="s">
         <v>32</v>
       </c>
-      <c r="R18" s="60"/>
-      <c r="S18" s="60"/>
-      <c r="T18" s="61"/>
+      <c r="R18" s="58"/>
+      <c r="S18" s="58"/>
+      <c r="T18" s="59"/>
       <c r="V18" s="3" t="s">
         <v>44</v>
       </c>
@@ -5459,12 +5482,12 @@
       <c r="AN18" s="6" t="s">
         <v>475</v>
       </c>
-      <c r="AP18" s="42" t="s">
+      <c r="AP18" s="62" t="s">
         <v>145</v>
       </c>
-      <c r="AQ18" s="43"/>
-      <c r="AR18" s="43"/>
-      <c r="AS18" s="44"/>
+      <c r="AQ18" s="63"/>
+      <c r="AR18" s="63"/>
+      <c r="AS18" s="64"/>
       <c r="AU18" s="6" t="s">
         <v>31</v>
       </c>
@@ -5571,12 +5594,12 @@
       <c r="AN19" s="6" t="s">
         <v>475</v>
       </c>
-      <c r="AP19" s="42" t="s">
+      <c r="AP19" s="62" t="s">
         <v>309</v>
       </c>
-      <c r="AQ19" s="43"/>
-      <c r="AR19" s="43"/>
-      <c r="AS19" s="44"/>
+      <c r="AQ19" s="63"/>
+      <c r="AR19" s="63"/>
+      <c r="AS19" s="64"/>
       <c r="AU19" s="3" t="s">
         <v>314</v>
       </c>
@@ -5659,12 +5682,12 @@
       <c r="AN20" s="6" t="s">
         <v>475</v>
       </c>
-      <c r="AP20" s="42" t="s">
+      <c r="AP20" s="62" t="s">
         <v>310</v>
       </c>
-      <c r="AQ20" s="43"/>
-      <c r="AR20" s="43"/>
-      <c r="AS20" s="44"/>
+      <c r="AQ20" s="63"/>
+      <c r="AR20" s="63"/>
+      <c r="AS20" s="64"/>
       <c r="AU20" s="3" t="s">
         <v>315</v>
       </c>
@@ -5767,12 +5790,12 @@
       <c r="AN21" s="6" t="s">
         <v>475</v>
       </c>
-      <c r="AP21" s="42" t="s">
+      <c r="AP21" s="62" t="s">
         <v>30</v>
       </c>
-      <c r="AQ21" s="43"/>
-      <c r="AR21" s="43"/>
-      <c r="AS21" s="44"/>
+      <c r="AQ21" s="63"/>
+      <c r="AR21" s="63"/>
+      <c r="AS21" s="64"/>
       <c r="AU21" s="3" t="s">
         <v>316</v>
       </c>
@@ -5867,12 +5890,12 @@
       <c r="AN22" s="6" t="s">
         <v>475</v>
       </c>
-      <c r="AP22" s="42" t="s">
+      <c r="AP22" s="62" t="s">
         <v>31</v>
       </c>
-      <c r="AQ22" s="43"/>
-      <c r="AR22" s="43"/>
-      <c r="AS22" s="44"/>
+      <c r="AQ22" s="63"/>
+      <c r="AR22" s="63"/>
+      <c r="AS22" s="64"/>
       <c r="AU22" s="3" t="s">
         <v>317</v>
       </c>
@@ -5967,12 +5990,12 @@
       <c r="AN23" s="6" t="s">
         <v>475</v>
       </c>
-      <c r="AP23" s="42" t="s">
+      <c r="AP23" s="62" t="s">
         <v>308</v>
       </c>
-      <c r="AQ23" s="43"/>
-      <c r="AR23" s="43"/>
-      <c r="AS23" s="44"/>
+      <c r="AQ23" s="63"/>
+      <c r="AR23" s="63"/>
+      <c r="AS23" s="64"/>
       <c r="AU23" s="8" t="s">
         <v>318</v>
       </c>
@@ -6059,12 +6082,12 @@
       <c r="AN24" s="6" t="s">
         <v>475</v>
       </c>
-      <c r="AP24" s="62" t="s">
+      <c r="AP24" s="74" t="s">
         <v>311</v>
       </c>
-      <c r="AQ24" s="63"/>
-      <c r="AR24" s="63"/>
-      <c r="AS24" s="64"/>
+      <c r="AQ24" s="75"/>
+      <c r="AR24" s="75"/>
+      <c r="AS24" s="76"/>
       <c r="AW24" s="4" t="s">
         <v>336</v>
       </c>
@@ -6157,12 +6180,12 @@
       <c r="AN25" s="6" t="s">
         <v>475</v>
       </c>
-      <c r="AW25" s="47" t="s">
+      <c r="AW25" s="80" t="s">
         <v>337</v>
       </c>
-      <c r="AX25" s="48"/>
-      <c r="AY25" s="48"/>
-      <c r="AZ25" s="49"/>
+      <c r="AX25" s="81"/>
+      <c r="AY25" s="81"/>
+      <c r="AZ25" s="82"/>
     </row>
     <row r="26" spans="2:54" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B26" s="41" t="s">
@@ -6235,12 +6258,12 @@
       <c r="AN26" s="6" t="s">
         <v>475</v>
       </c>
-      <c r="AW26" s="50" t="s">
+      <c r="AW26" s="65" t="s">
         <v>315</v>
       </c>
-      <c r="AX26" s="51"/>
-      <c r="AY26" s="51"/>
-      <c r="AZ26" s="52"/>
+      <c r="AX26" s="66"/>
+      <c r="AY26" s="66"/>
+      <c r="AZ26" s="67"/>
     </row>
     <row r="27" spans="2:54" x14ac:dyDescent="0.25">
       <c r="B27" s="41" t="s">
@@ -6685,21 +6708,21 @@
       </c>
     </row>
     <row r="32" spans="2:54" x14ac:dyDescent="0.25">
-      <c r="B32" s="71" t="s">
+      <c r="B32" s="43" t="s">
         <v>32</v>
       </c>
-      <c r="C32" s="72"/>
-      <c r="D32" s="72"/>
-      <c r="E32" s="73"/>
+      <c r="C32" s="44"/>
+      <c r="D32" s="44"/>
+      <c r="E32" s="45"/>
       <c r="F32" s="1"/>
-      <c r="G32" s="53"/>
-      <c r="H32" s="54"/>
-      <c r="I32" s="54"/>
-      <c r="J32" s="55"/>
-      <c r="L32" s="53"/>
-      <c r="M32" s="54"/>
-      <c r="N32" s="54"/>
-      <c r="O32" s="55"/>
+      <c r="G32" s="52"/>
+      <c r="H32" s="53"/>
+      <c r="I32" s="53"/>
+      <c r="J32" s="54"/>
+      <c r="L32" s="52"/>
+      <c r="M32" s="53"/>
+      <c r="N32" s="53"/>
+      <c r="O32" s="54"/>
       <c r="P32" s="1"/>
       <c r="Q32" s="1"/>
       <c r="R32" s="1"/>
@@ -6755,23 +6778,23 @@
       </c>
     </row>
     <row r="33" spans="2:40" x14ac:dyDescent="0.25">
-      <c r="B33" s="80"/>
-      <c r="C33" s="81"/>
-      <c r="D33" s="81"/>
-      <c r="E33" s="82"/>
+      <c r="B33" s="46"/>
+      <c r="C33" s="47"/>
+      <c r="D33" s="47"/>
+      <c r="E33" s="48"/>
       <c r="F33" s="1"/>
-      <c r="G33" s="56" t="s">
+      <c r="G33" s="55" t="s">
         <v>29</v>
       </c>
-      <c r="H33" s="57"/>
-      <c r="I33" s="57"/>
-      <c r="J33" s="58"/>
-      <c r="L33" s="56" t="s">
+      <c r="H33" s="42"/>
+      <c r="I33" s="42"/>
+      <c r="J33" s="56"/>
+      <c r="L33" s="55" t="s">
         <v>29</v>
       </c>
-      <c r="M33" s="57"/>
-      <c r="N33" s="57"/>
-      <c r="O33" s="58"/>
+      <c r="M33" s="42"/>
+      <c r="N33" s="42"/>
+      <c r="O33" s="56"/>
       <c r="P33" s="1"/>
       <c r="Q33" s="1"/>
       <c r="R33" s="1"/>
@@ -6827,19 +6850,19 @@
       </c>
     </row>
     <row r="34" spans="2:40" x14ac:dyDescent="0.25">
-      <c r="B34" s="80"/>
-      <c r="C34" s="81"/>
-      <c r="D34" s="81"/>
-      <c r="E34" s="82"/>
+      <c r="B34" s="46"/>
+      <c r="C34" s="47"/>
+      <c r="D34" s="47"/>
+      <c r="E34" s="48"/>
       <c r="F34" s="1"/>
-      <c r="G34" s="56"/>
-      <c r="H34" s="57"/>
-      <c r="I34" s="57"/>
-      <c r="J34" s="58"/>
-      <c r="L34" s="56"/>
-      <c r="M34" s="57"/>
-      <c r="N34" s="57"/>
-      <c r="O34" s="58"/>
+      <c r="G34" s="55"/>
+      <c r="H34" s="42"/>
+      <c r="I34" s="42"/>
+      <c r="J34" s="56"/>
+      <c r="L34" s="55"/>
+      <c r="M34" s="42"/>
+      <c r="N34" s="42"/>
+      <c r="O34" s="56"/>
       <c r="P34" s="1"/>
       <c r="Q34" s="1"/>
       <c r="R34" s="1"/>
@@ -6895,23 +6918,23 @@
       </c>
     </row>
     <row r="35" spans="2:40" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B35" s="74"/>
-      <c r="C35" s="75"/>
-      <c r="D35" s="75"/>
-      <c r="E35" s="76"/>
+      <c r="B35" s="49"/>
+      <c r="C35" s="50"/>
+      <c r="D35" s="50"/>
+      <c r="E35" s="51"/>
       <c r="F35" s="1"/>
-      <c r="G35" s="59" t="s">
+      <c r="G35" s="57" t="s">
         <v>32</v>
       </c>
-      <c r="H35" s="60"/>
-      <c r="I35" s="60"/>
-      <c r="J35" s="61"/>
-      <c r="L35" s="59" t="s">
+      <c r="H35" s="58"/>
+      <c r="I35" s="58"/>
+      <c r="J35" s="59"/>
+      <c r="L35" s="57" t="s">
         <v>32</v>
       </c>
-      <c r="M35" s="60"/>
-      <c r="N35" s="60"/>
-      <c r="O35" s="61"/>
+      <c r="M35" s="58"/>
+      <c r="N35" s="58"/>
+      <c r="O35" s="59"/>
       <c r="P35" s="1"/>
       <c r="Q35" s="1"/>
       <c r="R35" s="1"/>
@@ -6967,10 +6990,10 @@
       </c>
     </row>
     <row r="36" spans="2:40" x14ac:dyDescent="0.25">
-      <c r="B36" s="57"/>
-      <c r="C36" s="57"/>
-      <c r="D36" s="57"/>
-      <c r="E36" s="57"/>
+      <c r="B36" s="42"/>
+      <c r="C36" s="42"/>
+      <c r="D36" s="42"/>
+      <c r="E36" s="42"/>
       <c r="V36" s="3" t="s">
         <v>64</v>
       </c>
@@ -7145,12 +7168,12 @@
       <c r="AD39" s="6" t="s">
         <v>546</v>
       </c>
-      <c r="AF39" s="66" t="s">
+      <c r="AF39" s="71" t="s">
         <v>143</v>
       </c>
-      <c r="AG39" s="67"/>
-      <c r="AH39" s="67"/>
-      <c r="AI39" s="68"/>
+      <c r="AG39" s="72"/>
+      <c r="AH39" s="72"/>
+      <c r="AI39" s="73"/>
       <c r="AK39" s="3" t="s">
         <v>268</v>
       </c>
@@ -7189,12 +7212,12 @@
       <c r="AD40" s="6" t="s">
         <v>546</v>
       </c>
-      <c r="AF40" s="42" t="s">
+      <c r="AF40" s="62" t="s">
         <v>30</v>
       </c>
-      <c r="AG40" s="43"/>
-      <c r="AH40" s="43"/>
-      <c r="AI40" s="44"/>
+      <c r="AG40" s="63"/>
+      <c r="AH40" s="63"/>
+      <c r="AI40" s="64"/>
       <c r="AK40" s="3" t="s">
         <v>269</v>
       </c>
@@ -7233,12 +7256,12 @@
       <c r="AD41" s="6" t="s">
         <v>546</v>
       </c>
-      <c r="AF41" s="42" t="s">
+      <c r="AF41" s="62" t="s">
         <v>31</v>
       </c>
-      <c r="AG41" s="43"/>
-      <c r="AH41" s="43"/>
-      <c r="AI41" s="44"/>
+      <c r="AG41" s="63"/>
+      <c r="AH41" s="63"/>
+      <c r="AI41" s="64"/>
       <c r="AK41" s="3" t="s">
         <v>270</v>
       </c>
@@ -7277,12 +7300,12 @@
       <c r="AD42" s="6" t="s">
         <v>546</v>
       </c>
-      <c r="AF42" s="62" t="s">
+      <c r="AF42" s="74" t="s">
         <v>144</v>
       </c>
-      <c r="AG42" s="63"/>
-      <c r="AH42" s="63"/>
-      <c r="AI42" s="64"/>
+      <c r="AG42" s="75"/>
+      <c r="AH42" s="75"/>
+      <c r="AI42" s="76"/>
       <c r="AK42" s="3" t="s">
         <v>271</v>
       </c>
@@ -8575,12 +8598,12 @@
       <c r="AD76" s="6" t="s">
         <v>466</v>
       </c>
-      <c r="AK76" s="66" t="s">
+      <c r="AK76" s="71" t="s">
         <v>143</v>
       </c>
-      <c r="AL76" s="67"/>
-      <c r="AM76" s="67"/>
-      <c r="AN76" s="68"/>
+      <c r="AL76" s="72"/>
+      <c r="AM76" s="72"/>
+      <c r="AN76" s="73"/>
     </row>
     <row r="77" spans="22:40" x14ac:dyDescent="0.25">
       <c r="V77" s="3" t="s">
@@ -8607,12 +8630,12 @@
       <c r="AD77" s="18">
         <v>0</v>
       </c>
-      <c r="AK77" s="42" t="s">
+      <c r="AK77" s="62" t="s">
         <v>30</v>
       </c>
-      <c r="AL77" s="43"/>
-      <c r="AM77" s="43"/>
-      <c r="AN77" s="44"/>
+      <c r="AL77" s="63"/>
+      <c r="AM77" s="63"/>
+      <c r="AN77" s="64"/>
     </row>
     <row r="78" spans="22:40" x14ac:dyDescent="0.25">
       <c r="V78" s="3" t="s">
@@ -8639,12 +8662,12 @@
       <c r="AD78" s="6" t="s">
         <v>556</v>
       </c>
-      <c r="AK78" s="42" t="s">
+      <c r="AK78" s="62" t="s">
         <v>31</v>
       </c>
-      <c r="AL78" s="43"/>
-      <c r="AM78" s="43"/>
-      <c r="AN78" s="44"/>
+      <c r="AL78" s="63"/>
+      <c r="AM78" s="63"/>
+      <c r="AN78" s="64"/>
     </row>
     <row r="79" spans="22:40" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="V79" s="3" t="s">
@@ -8671,12 +8694,12 @@
       <c r="AD79" s="6" t="s">
         <v>466</v>
       </c>
-      <c r="AK79" s="62" t="s">
+      <c r="AK79" s="74" t="s">
         <v>144</v>
       </c>
-      <c r="AL79" s="63"/>
-      <c r="AM79" s="63"/>
-      <c r="AN79" s="64"/>
+      <c r="AL79" s="75"/>
+      <c r="AM79" s="75"/>
+      <c r="AN79" s="76"/>
     </row>
     <row r="80" spans="22:40" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="V80" s="3" t="s">
@@ -8717,12 +8740,12 @@
       <c r="Y81" s="6" t="s">
         <v>473</v>
       </c>
-      <c r="AA81" s="66" t="s">
+      <c r="AA81" s="71" t="s">
         <v>143</v>
       </c>
-      <c r="AB81" s="67"/>
-      <c r="AC81" s="67"/>
-      <c r="AD81" s="68"/>
+      <c r="AB81" s="72"/>
+      <c r="AC81" s="72"/>
+      <c r="AD81" s="73"/>
     </row>
     <row r="82" spans="22:37" x14ac:dyDescent="0.25">
       <c r="V82" s="3" t="s">
@@ -8737,12 +8760,12 @@
       <c r="Y82" s="6" t="s">
         <v>473</v>
       </c>
-      <c r="AA82" s="42" t="s">
+      <c r="AA82" s="62" t="s">
         <v>30</v>
       </c>
-      <c r="AB82" s="43"/>
-      <c r="AC82" s="43"/>
-      <c r="AD82" s="44"/>
+      <c r="AB82" s="63"/>
+      <c r="AC82" s="63"/>
+      <c r="AD82" s="64"/>
     </row>
     <row r="83" spans="22:37" x14ac:dyDescent="0.25">
       <c r="V83" s="3" t="s">
@@ -8757,12 +8780,12 @@
       <c r="Y83" s="6" t="s">
         <v>473</v>
       </c>
-      <c r="AA83" s="42" t="s">
+      <c r="AA83" s="62" t="s">
         <v>31</v>
       </c>
-      <c r="AB83" s="43"/>
-      <c r="AC83" s="43"/>
-      <c r="AD83" s="44"/>
+      <c r="AB83" s="63"/>
+      <c r="AC83" s="63"/>
+      <c r="AD83" s="64"/>
     </row>
     <row r="84" spans="22:37" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="V84" s="3" t="s">
@@ -8777,12 +8800,12 @@
       <c r="Y84" s="6" t="s">
         <v>473</v>
       </c>
-      <c r="AA84" s="62" t="s">
+      <c r="AA84" s="74" t="s">
         <v>144</v>
       </c>
-      <c r="AB84" s="63"/>
-      <c r="AC84" s="63"/>
-      <c r="AD84" s="64"/>
+      <c r="AB84" s="75"/>
+      <c r="AC84" s="75"/>
+      <c r="AD84" s="76"/>
     </row>
     <row r="85" spans="22:37" x14ac:dyDescent="0.25">
       <c r="V85" s="3" t="s">
@@ -9271,36 +9294,36 @@
       </c>
     </row>
     <row r="119" spans="22:25" x14ac:dyDescent="0.25">
-      <c r="V119" s="66" t="s">
+      <c r="V119" s="71" t="s">
         <v>143</v>
       </c>
-      <c r="W119" s="67"/>
-      <c r="X119" s="67"/>
-      <c r="Y119" s="68"/>
+      <c r="W119" s="72"/>
+      <c r="X119" s="72"/>
+      <c r="Y119" s="73"/>
     </row>
     <row r="120" spans="22:25" x14ac:dyDescent="0.25">
-      <c r="V120" s="42" t="s">
+      <c r="V120" s="62" t="s">
         <v>30</v>
       </c>
-      <c r="W120" s="43"/>
-      <c r="X120" s="43"/>
-      <c r="Y120" s="44"/>
+      <c r="W120" s="63"/>
+      <c r="X120" s="63"/>
+      <c r="Y120" s="64"/>
     </row>
     <row r="121" spans="22:25" x14ac:dyDescent="0.25">
-      <c r="V121" s="42" t="s">
+      <c r="V121" s="62" t="s">
         <v>31</v>
       </c>
-      <c r="W121" s="43"/>
-      <c r="X121" s="43"/>
-      <c r="Y121" s="44"/>
+      <c r="W121" s="63"/>
+      <c r="X121" s="63"/>
+      <c r="Y121" s="64"/>
     </row>
     <row r="122" spans="22:25" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="V122" s="62" t="s">
+      <c r="V122" s="74" t="s">
         <v>144</v>
       </c>
-      <c r="W122" s="63"/>
-      <c r="X122" s="63"/>
-      <c r="Y122" s="64"/>
+      <c r="W122" s="75"/>
+      <c r="X122" s="75"/>
+      <c r="Y122" s="76"/>
     </row>
     <row r="128" spans="22:25" x14ac:dyDescent="0.25">
       <c r="V128" t="s">
@@ -9322,23 +9345,64 @@
     </row>
   </sheetData>
   <mergeCells count="91">
-    <mergeCell ref="B36:E36"/>
-    <mergeCell ref="B32:E35"/>
-    <mergeCell ref="G32:J32"/>
-    <mergeCell ref="G33:J33"/>
-    <mergeCell ref="G34:J34"/>
-    <mergeCell ref="G35:J35"/>
-    <mergeCell ref="L35:O35"/>
-    <mergeCell ref="H6:H7"/>
-    <mergeCell ref="I6:I7"/>
-    <mergeCell ref="J6:J7"/>
-    <mergeCell ref="AX6:AX7"/>
-    <mergeCell ref="AP17:AS17"/>
-    <mergeCell ref="AP18:AS18"/>
-    <mergeCell ref="Q8:Q9"/>
-    <mergeCell ref="R8:R9"/>
-    <mergeCell ref="L33:O33"/>
-    <mergeCell ref="L34:O34"/>
+    <mergeCell ref="V120:Y120"/>
+    <mergeCell ref="S8:S9"/>
+    <mergeCell ref="T8:T9"/>
+    <mergeCell ref="V121:Y121"/>
+    <mergeCell ref="AW25:AZ25"/>
+    <mergeCell ref="AW26:AZ26"/>
+    <mergeCell ref="Q15:T15"/>
+    <mergeCell ref="Q16:T16"/>
+    <mergeCell ref="Q17:T17"/>
+    <mergeCell ref="Q18:T18"/>
+    <mergeCell ref="AK77:AN77"/>
+    <mergeCell ref="AK78:AN78"/>
+    <mergeCell ref="AK79:AN79"/>
+    <mergeCell ref="AP22:AS22"/>
+    <mergeCell ref="AP23:AS23"/>
+    <mergeCell ref="AP24:AS24"/>
+    <mergeCell ref="V122:Y122"/>
+    <mergeCell ref="BB6:BB7"/>
+    <mergeCell ref="AW6:AW7"/>
+    <mergeCell ref="AP6:AP7"/>
+    <mergeCell ref="AU6:AU7"/>
+    <mergeCell ref="V119:Y119"/>
+    <mergeCell ref="AB6:AB7"/>
+    <mergeCell ref="AC6:AC7"/>
+    <mergeCell ref="AD6:AD7"/>
+    <mergeCell ref="AA81:AD81"/>
+    <mergeCell ref="AA82:AD82"/>
+    <mergeCell ref="AA83:AD83"/>
+    <mergeCell ref="AA84:AD84"/>
+    <mergeCell ref="AG6:AG7"/>
+    <mergeCell ref="AH6:AH7"/>
+    <mergeCell ref="AI6:AI7"/>
+    <mergeCell ref="B6:B7"/>
+    <mergeCell ref="G6:G7"/>
+    <mergeCell ref="L6:L7"/>
+    <mergeCell ref="X6:X7"/>
+    <mergeCell ref="W6:W7"/>
+    <mergeCell ref="M6:M7"/>
+    <mergeCell ref="N6:N7"/>
+    <mergeCell ref="O6:O7"/>
+    <mergeCell ref="Q6:T7"/>
+    <mergeCell ref="C6:C7"/>
+    <mergeCell ref="D6:D7"/>
+    <mergeCell ref="E6:E7"/>
+    <mergeCell ref="AK4:AN4"/>
+    <mergeCell ref="AK76:AN76"/>
+    <mergeCell ref="AF39:AI39"/>
+    <mergeCell ref="AK6:AK7"/>
+    <mergeCell ref="V6:V7"/>
+    <mergeCell ref="AA6:AA7"/>
+    <mergeCell ref="AF6:AF7"/>
+    <mergeCell ref="Y6:Y7"/>
+    <mergeCell ref="V4:Y4"/>
+    <mergeCell ref="AA4:AD4"/>
+    <mergeCell ref="AF4:AI4"/>
+    <mergeCell ref="AF40:AI40"/>
+    <mergeCell ref="AF41:AI41"/>
+    <mergeCell ref="AF42:AI42"/>
     <mergeCell ref="AY6:AY7"/>
     <mergeCell ref="AZ6:AZ7"/>
     <mergeCell ref="AW4:AZ4"/>
@@ -9355,64 +9419,23 @@
     <mergeCell ref="AP20:AS20"/>
     <mergeCell ref="AP21:AS21"/>
     <mergeCell ref="AP16:AS16"/>
-    <mergeCell ref="AK4:AN4"/>
-    <mergeCell ref="AK76:AN76"/>
-    <mergeCell ref="AF39:AI39"/>
-    <mergeCell ref="AK6:AK7"/>
-    <mergeCell ref="V6:V7"/>
-    <mergeCell ref="AA6:AA7"/>
-    <mergeCell ref="AF6:AF7"/>
-    <mergeCell ref="Y6:Y7"/>
-    <mergeCell ref="V4:Y4"/>
-    <mergeCell ref="AA4:AD4"/>
-    <mergeCell ref="AF4:AI4"/>
-    <mergeCell ref="AF40:AI40"/>
-    <mergeCell ref="AF41:AI41"/>
-    <mergeCell ref="AF42:AI42"/>
-    <mergeCell ref="B6:B7"/>
-    <mergeCell ref="G6:G7"/>
-    <mergeCell ref="L6:L7"/>
-    <mergeCell ref="X6:X7"/>
-    <mergeCell ref="W6:W7"/>
-    <mergeCell ref="M6:M7"/>
-    <mergeCell ref="N6:N7"/>
-    <mergeCell ref="O6:O7"/>
-    <mergeCell ref="Q6:T7"/>
-    <mergeCell ref="C6:C7"/>
-    <mergeCell ref="D6:D7"/>
-    <mergeCell ref="E6:E7"/>
-    <mergeCell ref="V122:Y122"/>
-    <mergeCell ref="BB6:BB7"/>
-    <mergeCell ref="AW6:AW7"/>
-    <mergeCell ref="AP6:AP7"/>
-    <mergeCell ref="AU6:AU7"/>
-    <mergeCell ref="V119:Y119"/>
-    <mergeCell ref="AB6:AB7"/>
-    <mergeCell ref="AC6:AC7"/>
-    <mergeCell ref="AD6:AD7"/>
-    <mergeCell ref="AA81:AD81"/>
-    <mergeCell ref="AA82:AD82"/>
-    <mergeCell ref="AA83:AD83"/>
-    <mergeCell ref="AA84:AD84"/>
-    <mergeCell ref="AG6:AG7"/>
-    <mergeCell ref="AH6:AH7"/>
-    <mergeCell ref="AI6:AI7"/>
-    <mergeCell ref="V120:Y120"/>
-    <mergeCell ref="S8:S9"/>
-    <mergeCell ref="T8:T9"/>
-    <mergeCell ref="V121:Y121"/>
-    <mergeCell ref="AW25:AZ25"/>
-    <mergeCell ref="AW26:AZ26"/>
-    <mergeCell ref="Q15:T15"/>
-    <mergeCell ref="Q16:T16"/>
-    <mergeCell ref="Q17:T17"/>
-    <mergeCell ref="Q18:T18"/>
-    <mergeCell ref="AK77:AN77"/>
-    <mergeCell ref="AK78:AN78"/>
-    <mergeCell ref="AK79:AN79"/>
-    <mergeCell ref="AP22:AS22"/>
-    <mergeCell ref="AP23:AS23"/>
-    <mergeCell ref="AP24:AS24"/>
+    <mergeCell ref="L35:O35"/>
+    <mergeCell ref="H6:H7"/>
+    <mergeCell ref="I6:I7"/>
+    <mergeCell ref="J6:J7"/>
+    <mergeCell ref="AX6:AX7"/>
+    <mergeCell ref="AP17:AS17"/>
+    <mergeCell ref="AP18:AS18"/>
+    <mergeCell ref="Q8:Q9"/>
+    <mergeCell ref="R8:R9"/>
+    <mergeCell ref="L33:O33"/>
+    <mergeCell ref="L34:O34"/>
+    <mergeCell ref="B36:E36"/>
+    <mergeCell ref="B32:E35"/>
+    <mergeCell ref="G32:J32"/>
+    <mergeCell ref="G33:J33"/>
+    <mergeCell ref="G34:J34"/>
+    <mergeCell ref="G35:J35"/>
   </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -9422,10 +9445,10 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D8F76CB4-6E73-48BB-89E3-7365BCD76DEB}">
-  <dimension ref="B1:Q42"/>
+  <dimension ref="B1:S42"/>
   <sheetViews>
-    <sheetView topLeftCell="L19" zoomScale="120" zoomScaleNormal="120" workbookViewId="0">
-      <selection activeCell="N7" sqref="N7:P7"/>
+    <sheetView tabSelected="1" topLeftCell="L1" zoomScale="120" zoomScaleNormal="120" workbookViewId="0">
+      <selection activeCell="S3" sqref="S3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -9436,15 +9459,16 @@
     <col min="10" max="10" width="16.85546875" bestFit="1" customWidth="1"/>
     <col min="12" max="12" width="33.42578125" bestFit="1" customWidth="1"/>
     <col min="17" max="17" width="19.28515625" customWidth="1"/>
+    <col min="19" max="19" width="42" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="2:16" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
-    <row r="2" spans="2:16" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B2" s="50" t="s">
+    <row r="1" spans="2:19" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
+    <row r="2" spans="2:19" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B2" s="65" t="s">
         <v>465</v>
       </c>
-      <c r="C2" s="51"/>
-      <c r="D2" s="52"/>
+      <c r="C2" s="66"/>
+      <c r="D2" s="67"/>
       <c r="F2" s="17" t="s">
         <v>493</v>
       </c>
@@ -9457,18 +9481,21 @@
       <c r="L2" s="17" t="s">
         <v>711</v>
       </c>
-      <c r="N2" s="89" t="s">
+      <c r="N2" s="105" t="s">
         <v>797</v>
       </c>
-      <c r="O2" s="90"/>
-      <c r="P2" s="91"/>
-    </row>
-    <row r="3" spans="2:16" x14ac:dyDescent="0.25">
-      <c r="B3" s="114" t="s">
+      <c r="O2" s="106"/>
+      <c r="P2" s="107"/>
+      <c r="S2" s="117" t="s">
+        <v>898</v>
+      </c>
+    </row>
+    <row r="3" spans="2:19" x14ac:dyDescent="0.25">
+      <c r="B3" s="86" t="s">
         <v>474</v>
       </c>
-      <c r="C3" s="115"/>
-      <c r="D3" s="116"/>
+      <c r="C3" s="87"/>
+      <c r="D3" s="88"/>
       <c r="F3" s="14" t="s">
         <v>474</v>
       </c>
@@ -9481,18 +9508,21 @@
       <c r="L3" s="36" t="s">
         <v>712</v>
       </c>
-      <c r="N3" s="92" t="s">
+      <c r="N3" s="95" t="s">
         <v>796</v>
       </c>
-      <c r="O3" s="93"/>
-      <c r="P3" s="94"/>
-    </row>
-    <row r="4" spans="2:16" x14ac:dyDescent="0.25">
-      <c r="B4" s="105" t="s">
+      <c r="O3" s="108"/>
+      <c r="P3" s="96"/>
+      <c r="S3" s="118" t="s">
+        <v>899</v>
+      </c>
+    </row>
+    <row r="4" spans="2:19" x14ac:dyDescent="0.25">
+      <c r="B4" s="83" t="s">
         <v>451</v>
       </c>
-      <c r="C4" s="106"/>
-      <c r="D4" s="107"/>
+      <c r="C4" s="84"/>
+      <c r="D4" s="85"/>
       <c r="F4" s="15" t="s">
         <v>494</v>
       </c>
@@ -9505,18 +9535,21 @@
       <c r="L4" s="27" t="s">
         <v>713</v>
       </c>
-      <c r="N4" s="98" t="s">
+      <c r="N4" s="101" t="s">
         <v>451</v>
       </c>
-      <c r="O4" s="99"/>
-      <c r="P4" s="100"/>
-    </row>
-    <row r="5" spans="2:16" x14ac:dyDescent="0.25">
-      <c r="B5" s="105" t="s">
+      <c r="O4" s="102"/>
+      <c r="P4" s="103"/>
+      <c r="S4" s="3" t="s">
+        <v>902</v>
+      </c>
+    </row>
+    <row r="5" spans="2:19" x14ac:dyDescent="0.25">
+      <c r="B5" s="83" t="s">
         <v>452</v>
       </c>
-      <c r="C5" s="106"/>
-      <c r="D5" s="107"/>
+      <c r="C5" s="84"/>
+      <c r="D5" s="85"/>
       <c r="F5" s="15" t="s">
         <v>495</v>
       </c>
@@ -9529,18 +9562,21 @@
       <c r="L5" s="27" t="s">
         <v>714</v>
       </c>
-      <c r="N5" s="98" t="s">
+      <c r="N5" s="101" t="s">
         <v>452</v>
       </c>
-      <c r="O5" s="99"/>
-      <c r="P5" s="100"/>
-    </row>
-    <row r="6" spans="2:16" x14ac:dyDescent="0.25">
-      <c r="B6" s="105" t="s">
+      <c r="O5" s="102"/>
+      <c r="P5" s="103"/>
+      <c r="S5" s="3" t="s">
+        <v>903</v>
+      </c>
+    </row>
+    <row r="6" spans="2:19" x14ac:dyDescent="0.25">
+      <c r="B6" s="83" t="s">
         <v>453</v>
       </c>
-      <c r="C6" s="106"/>
-      <c r="D6" s="107"/>
+      <c r="C6" s="84"/>
+      <c r="D6" s="85"/>
       <c r="F6" s="15" t="s">
         <v>496</v>
       </c>
@@ -9553,18 +9589,21 @@
       <c r="L6" s="27" t="s">
         <v>715</v>
       </c>
-      <c r="N6" s="98" t="s">
+      <c r="N6" s="101" t="s">
         <v>453</v>
       </c>
-      <c r="O6" s="99"/>
-      <c r="P6" s="100"/>
-    </row>
-    <row r="7" spans="2:16" x14ac:dyDescent="0.25">
-      <c r="B7" s="105" t="s">
+      <c r="O6" s="102"/>
+      <c r="P6" s="103"/>
+      <c r="S6" s="3" t="s">
+        <v>904</v>
+      </c>
+    </row>
+    <row r="7" spans="2:19" x14ac:dyDescent="0.25">
+      <c r="B7" s="83" t="s">
         <v>454</v>
       </c>
-      <c r="C7" s="106"/>
-      <c r="D7" s="107"/>
+      <c r="C7" s="84"/>
+      <c r="D7" s="85"/>
       <c r="F7" s="15" t="s">
         <v>497</v>
       </c>
@@ -9577,18 +9616,21 @@
       <c r="L7" s="27" t="s">
         <v>716</v>
       </c>
-      <c r="N7" s="98" t="s">
+      <c r="N7" s="101" t="s">
         <v>454</v>
       </c>
-      <c r="O7" s="99"/>
-      <c r="P7" s="100"/>
-    </row>
-    <row r="8" spans="2:16" x14ac:dyDescent="0.25">
-      <c r="B8" s="105" t="s">
+      <c r="O7" s="102"/>
+      <c r="P7" s="103"/>
+      <c r="S7" s="3" t="s">
+        <v>900</v>
+      </c>
+    </row>
+    <row r="8" spans="2:19" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B8" s="83" t="s">
         <v>455</v>
       </c>
-      <c r="C8" s="106"/>
-      <c r="D8" s="107"/>
+      <c r="C8" s="84"/>
+      <c r="D8" s="85"/>
       <c r="F8" s="15" t="s">
         <v>211</v>
       </c>
@@ -9601,18 +9643,21 @@
       <c r="L8" s="27" t="s">
         <v>717</v>
       </c>
-      <c r="N8" s="98" t="s">
+      <c r="N8" s="101" t="s">
         <v>455</v>
       </c>
-      <c r="O8" s="99"/>
-      <c r="P8" s="100"/>
-    </row>
-    <row r="9" spans="2:16" x14ac:dyDescent="0.25">
-      <c r="B9" s="105" t="s">
+      <c r="O8" s="102"/>
+      <c r="P8" s="103"/>
+      <c r="S8" s="4" t="s">
+        <v>901</v>
+      </c>
+    </row>
+    <row r="9" spans="2:19" x14ac:dyDescent="0.25">
+      <c r="B9" s="83" t="s">
         <v>456</v>
       </c>
-      <c r="C9" s="106"/>
-      <c r="D9" s="107"/>
+      <c r="C9" s="84"/>
+      <c r="D9" s="85"/>
       <c r="F9" s="15" t="s">
         <v>498</v>
       </c>
@@ -9625,18 +9670,18 @@
       <c r="L9" s="27" t="s">
         <v>718</v>
       </c>
-      <c r="N9" s="98" t="s">
+      <c r="N9" s="101" t="s">
         <v>456</v>
       </c>
-      <c r="O9" s="99"/>
-      <c r="P9" s="100"/>
-    </row>
-    <row r="10" spans="2:16" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B10" s="105" t="s">
+      <c r="O9" s="102"/>
+      <c r="P9" s="103"/>
+    </row>
+    <row r="10" spans="2:19" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B10" s="83" t="s">
         <v>457</v>
       </c>
-      <c r="C10" s="106"/>
-      <c r="D10" s="107"/>
+      <c r="C10" s="84"/>
+      <c r="D10" s="85"/>
       <c r="F10" s="15" t="s">
         <v>499</v>
       </c>
@@ -9649,18 +9694,18 @@
       <c r="L10" s="27" t="s">
         <v>719</v>
       </c>
-      <c r="N10" s="98" t="s">
+      <c r="N10" s="101" t="s">
         <v>457</v>
       </c>
-      <c r="O10" s="99"/>
-      <c r="P10" s="100"/>
-    </row>
-    <row r="11" spans="2:16" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B11" s="105" t="s">
+      <c r="O10" s="102"/>
+      <c r="P10" s="103"/>
+    </row>
+    <row r="11" spans="2:19" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B11" s="83" t="s">
         <v>458</v>
       </c>
-      <c r="C11" s="106"/>
-      <c r="D11" s="107"/>
+      <c r="C11" s="84"/>
+      <c r="D11" s="85"/>
       <c r="F11" s="15" t="s">
         <v>500</v>
       </c>
@@ -9670,48 +9715,48 @@
       <c r="L11" s="28" t="s">
         <v>720</v>
       </c>
-      <c r="N11" s="98" t="s">
+      <c r="N11" s="101" t="s">
         <v>458</v>
       </c>
-      <c r="O11" s="99"/>
-      <c r="P11" s="100"/>
-    </row>
-    <row r="12" spans="2:16" x14ac:dyDescent="0.25">
-      <c r="B12" s="105" t="s">
+      <c r="O11" s="102"/>
+      <c r="P11" s="103"/>
+    </row>
+    <row r="12" spans="2:19" x14ac:dyDescent="0.25">
+      <c r="B12" s="83" t="s">
         <v>459</v>
       </c>
-      <c r="C12" s="106"/>
-      <c r="D12" s="107"/>
+      <c r="C12" s="84"/>
+      <c r="D12" s="85"/>
       <c r="F12" s="15" t="s">
         <v>236</v>
       </c>
-      <c r="N12" s="98" t="s">
+      <c r="N12" s="101" t="s">
         <v>459</v>
       </c>
-      <c r="O12" s="99"/>
-      <c r="P12" s="100"/>
-    </row>
-    <row r="13" spans="2:16" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B13" s="105" t="s">
+      <c r="O12" s="102"/>
+      <c r="P12" s="103"/>
+    </row>
+    <row r="13" spans="2:19" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B13" s="83" t="s">
         <v>460</v>
       </c>
-      <c r="C13" s="106"/>
-      <c r="D13" s="107"/>
+      <c r="C13" s="84"/>
+      <c r="D13" s="85"/>
       <c r="F13" s="15" t="s">
         <v>501</v>
       </c>
-      <c r="N13" s="98" t="s">
+      <c r="N13" s="101" t="s">
         <v>460</v>
       </c>
-      <c r="O13" s="99"/>
-      <c r="P13" s="100"/>
-    </row>
-    <row r="14" spans="2:16" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B14" s="105" t="s">
+      <c r="O13" s="102"/>
+      <c r="P13" s="103"/>
+    </row>
+    <row r="14" spans="2:19" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B14" s="83" t="s">
         <v>461</v>
       </c>
-      <c r="C14" s="106"/>
-      <c r="D14" s="107"/>
+      <c r="C14" s="84"/>
+      <c r="D14" s="85"/>
       <c r="F14" s="15" t="s">
         <v>502</v>
       </c>
@@ -9724,18 +9769,18 @@
       <c r="L14" s="9" t="s">
         <v>779</v>
       </c>
-      <c r="N14" s="98" t="s">
+      <c r="N14" s="101" t="s">
         <v>461</v>
       </c>
-      <c r="O14" s="99"/>
-      <c r="P14" s="100"/>
-    </row>
-    <row r="15" spans="2:16" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B15" s="105" t="s">
+      <c r="O14" s="102"/>
+      <c r="P14" s="103"/>
+    </row>
+    <row r="15" spans="2:19" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B15" s="83" t="s">
         <v>462</v>
       </c>
-      <c r="C15" s="106"/>
-      <c r="D15" s="107"/>
+      <c r="C15" s="84"/>
+      <c r="D15" s="85"/>
       <c r="F15" s="16" t="s">
         <v>503</v>
       </c>
@@ -9748,18 +9793,18 @@
       <c r="L15" s="14" t="s">
         <v>781</v>
       </c>
-      <c r="N15" s="98" t="s">
+      <c r="N15" s="101" t="s">
         <v>462</v>
       </c>
-      <c r="O15" s="99"/>
-      <c r="P15" s="100"/>
-    </row>
-    <row r="16" spans="2:16" x14ac:dyDescent="0.25">
-      <c r="B16" s="105" t="s">
+      <c r="O15" s="102"/>
+      <c r="P15" s="103"/>
+    </row>
+    <row r="16" spans="2:19" x14ac:dyDescent="0.25">
+      <c r="B16" s="83" t="s">
         <v>463</v>
       </c>
-      <c r="C16" s="106"/>
-      <c r="D16" s="107"/>
+      <c r="C16" s="84"/>
+      <c r="D16" s="85"/>
       <c r="H16" s="15" t="s">
         <v>592</v>
       </c>
@@ -9769,18 +9814,18 @@
       <c r="L16" s="3" t="s">
         <v>780</v>
       </c>
-      <c r="N16" s="98" t="s">
+      <c r="N16" s="101" t="s">
         <v>463</v>
       </c>
-      <c r="O16" s="99"/>
-      <c r="P16" s="100"/>
+      <c r="O16" s="102"/>
+      <c r="P16" s="103"/>
     </row>
     <row r="17" spans="2:17" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B17" s="108" t="s">
+      <c r="B17" s="91" t="s">
         <v>464</v>
       </c>
-      <c r="C17" s="109"/>
-      <c r="D17" s="110"/>
+      <c r="C17" s="92"/>
+      <c r="D17" s="93"/>
       <c r="H17" s="20" t="s">
         <v>593</v>
       </c>
@@ -9790,16 +9835,16 @@
       <c r="L17" s="3" t="s">
         <v>782</v>
       </c>
-      <c r="N17" s="101" t="s">
+      <c r="N17" s="112" t="s">
         <v>464</v>
       </c>
-      <c r="O17" s="102"/>
-      <c r="P17" s="103"/>
+      <c r="O17" s="113"/>
+      <c r="P17" s="114"/>
     </row>
     <row r="18" spans="2:17" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B18" s="111"/>
-      <c r="C18" s="111"/>
-      <c r="D18" s="111"/>
+      <c r="B18" s="94"/>
+      <c r="C18" s="94"/>
+      <c r="D18" s="94"/>
       <c r="H18" s="16" t="s">
         <v>594</v>
       </c>
@@ -9809,9 +9854,9 @@
       <c r="L18" s="3" t="s">
         <v>783</v>
       </c>
-      <c r="N18" s="104"/>
-      <c r="O18" s="104"/>
-      <c r="P18" s="104"/>
+      <c r="N18" s="115"/>
+      <c r="O18" s="115"/>
+      <c r="P18" s="115"/>
     </row>
     <row r="19" spans="2:17" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B19" s="12"/>
@@ -9821,18 +9866,18 @@
       <c r="L19" s="3" t="s">
         <v>784</v>
       </c>
-      <c r="N19" s="95" t="s">
+      <c r="N19" s="109" t="s">
         <v>801</v>
       </c>
-      <c r="O19" s="96"/>
-      <c r="P19" s="96"/>
-      <c r="Q19" s="97"/>
+      <c r="O19" s="110"/>
+      <c r="P19" s="110"/>
+      <c r="Q19" s="111"/>
     </row>
     <row r="20" spans="2:17" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B20" s="112" t="s">
+      <c r="B20" s="99" t="s">
         <v>485</v>
       </c>
-      <c r="C20" s="113"/>
+      <c r="C20" s="100"/>
       <c r="F20" s="9" t="s">
         <v>595</v>
       </c>
@@ -9842,18 +9887,18 @@
       <c r="L20" s="6" t="s">
         <v>786</v>
       </c>
-      <c r="N20" s="92" t="s">
+      <c r="N20" s="95" t="s">
         <v>796</v>
       </c>
-      <c r="O20" s="93"/>
-      <c r="P20" s="93"/>
-      <c r="Q20" s="94"/>
+      <c r="O20" s="108"/>
+      <c r="P20" s="108"/>
+      <c r="Q20" s="96"/>
     </row>
     <row r="21" spans="2:17" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B21" s="92" t="s">
+      <c r="B21" s="95" t="s">
         <v>474</v>
       </c>
-      <c r="C21" s="94"/>
+      <c r="C21" s="96"/>
       <c r="F21" s="14" t="s">
         <v>596</v>
       </c>
@@ -9864,18 +9909,18 @@
         <v>703</v>
       </c>
       <c r="L21" s="4"/>
-      <c r="N21" s="83" t="s">
+      <c r="N21" s="97" t="s">
         <v>802</v>
       </c>
-      <c r="O21" s="84"/>
-      <c r="P21" s="84"/>
-      <c r="Q21" s="85"/>
+      <c r="O21" s="104"/>
+      <c r="P21" s="104"/>
+      <c r="Q21" s="98"/>
     </row>
     <row r="22" spans="2:17" x14ac:dyDescent="0.25">
-      <c r="B22" s="83" t="s">
+      <c r="B22" s="97" t="s">
         <v>479</v>
       </c>
-      <c r="C22" s="85"/>
+      <c r="C22" s="98"/>
       <c r="F22" s="18" t="s">
         <v>597</v>
       </c>
@@ -9885,18 +9930,18 @@
       <c r="J22" s="25" t="s">
         <v>704</v>
       </c>
-      <c r="N22" s="83" t="s">
+      <c r="N22" s="97" t="s">
         <v>803</v>
       </c>
-      <c r="O22" s="84"/>
-      <c r="P22" s="84"/>
-      <c r="Q22" s="85"/>
+      <c r="O22" s="104"/>
+      <c r="P22" s="104"/>
+      <c r="Q22" s="98"/>
     </row>
     <row r="23" spans="2:17" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B23" s="83" t="s">
+      <c r="B23" s="97" t="s">
         <v>480</v>
       </c>
-      <c r="C23" s="85"/>
+      <c r="C23" s="98"/>
       <c r="F23" s="18" t="s">
         <v>598</v>
       </c>
@@ -9906,78 +9951,78 @@
       <c r="J23" s="26" t="s">
         <v>705</v>
       </c>
-      <c r="N23" s="83" t="s">
+      <c r="N23" s="97" t="s">
         <v>804</v>
       </c>
-      <c r="O23" s="84"/>
-      <c r="P23" s="84"/>
-      <c r="Q23" s="85"/>
+      <c r="O23" s="104"/>
+      <c r="P23" s="104"/>
+      <c r="Q23" s="98"/>
     </row>
     <row r="24" spans="2:17" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B24" s="83" t="s">
+      <c r="B24" s="97" t="s">
         <v>481</v>
       </c>
-      <c r="C24" s="85"/>
+      <c r="C24" s="98"/>
       <c r="F24" s="21" t="s">
         <v>599</v>
       </c>
       <c r="H24" s="15" t="s">
         <v>606</v>
       </c>
-      <c r="N24" s="83" t="s">
+      <c r="N24" s="97" t="s">
         <v>805</v>
       </c>
-      <c r="O24" s="84"/>
-      <c r="P24" s="84"/>
-      <c r="Q24" s="85"/>
+      <c r="O24" s="104"/>
+      <c r="P24" s="104"/>
+      <c r="Q24" s="98"/>
     </row>
     <row r="25" spans="2:17" x14ac:dyDescent="0.25">
-      <c r="B25" s="83" t="s">
+      <c r="B25" s="97" t="s">
         <v>482</v>
       </c>
-      <c r="C25" s="85"/>
+      <c r="C25" s="98"/>
       <c r="H25" s="15" t="s">
         <v>607</v>
       </c>
-      <c r="N25" s="83" t="s">
+      <c r="N25" s="97" t="s">
         <v>806</v>
       </c>
-      <c r="O25" s="84"/>
-      <c r="P25" s="84"/>
-      <c r="Q25" s="85"/>
+      <c r="O25" s="104"/>
+      <c r="P25" s="104"/>
+      <c r="Q25" s="98"/>
     </row>
     <row r="26" spans="2:17" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B26" s="83" t="s">
+      <c r="B26" s="97" t="s">
         <v>483</v>
       </c>
-      <c r="C26" s="85"/>
+      <c r="C26" s="98"/>
       <c r="H26" s="15" t="s">
         <v>608</v>
       </c>
-      <c r="N26" s="83" t="s">
+      <c r="N26" s="97" t="s">
         <v>807</v>
       </c>
-      <c r="O26" s="84"/>
-      <c r="P26" s="84"/>
-      <c r="Q26" s="85"/>
+      <c r="O26" s="104"/>
+      <c r="P26" s="104"/>
+      <c r="Q26" s="98"/>
     </row>
     <row r="27" spans="2:17" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B27" s="86" t="s">
+      <c r="B27" s="89" t="s">
         <v>484</v>
       </c>
-      <c r="C27" s="88"/>
+      <c r="C27" s="90"/>
       <c r="H27" s="15" t="s">
         <v>609</v>
       </c>
       <c r="J27" s="19" t="s">
         <v>729</v>
       </c>
-      <c r="N27" s="83" t="s">
+      <c r="N27" s="97" t="s">
         <v>808</v>
       </c>
-      <c r="O27" s="84"/>
-      <c r="P27" s="84"/>
-      <c r="Q27" s="85"/>
+      <c r="O27" s="104"/>
+      <c r="P27" s="104"/>
+      <c r="Q27" s="98"/>
     </row>
     <row r="28" spans="2:17" x14ac:dyDescent="0.25">
       <c r="B28" s="12"/>
@@ -9987,12 +10032,12 @@
       <c r="J28" s="14" t="s">
         <v>796</v>
       </c>
-      <c r="N28" s="83" t="s">
+      <c r="N28" s="97" t="s">
         <v>809</v>
       </c>
-      <c r="O28" s="84"/>
-      <c r="P28" s="84"/>
-      <c r="Q28" s="85"/>
+      <c r="O28" s="104"/>
+      <c r="P28" s="104"/>
+      <c r="Q28" s="98"/>
     </row>
     <row r="29" spans="2:17" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B29" s="12"/>
@@ -10002,12 +10047,12 @@
       <c r="J29" s="3" t="s">
         <v>730</v>
       </c>
-      <c r="N29" s="83" t="s">
+      <c r="N29" s="97" t="s">
         <v>810</v>
       </c>
-      <c r="O29" s="84"/>
-      <c r="P29" s="84"/>
-      <c r="Q29" s="85"/>
+      <c r="O29" s="104"/>
+      <c r="P29" s="104"/>
+      <c r="Q29" s="98"/>
     </row>
     <row r="30" spans="2:17" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B30" s="12"/>
@@ -10020,12 +10065,12 @@
       <c r="L30" s="9" t="s">
         <v>785</v>
       </c>
-      <c r="N30" s="83" t="s">
+      <c r="N30" s="97" t="s">
         <v>811</v>
       </c>
-      <c r="O30" s="84"/>
-      <c r="P30" s="84"/>
-      <c r="Q30" s="85"/>
+      <c r="O30" s="104"/>
+      <c r="P30" s="104"/>
+      <c r="Q30" s="98"/>
     </row>
     <row r="31" spans="2:17" x14ac:dyDescent="0.25">
       <c r="B31" s="12"/>
@@ -10033,12 +10078,12 @@
         <v>726</v>
       </c>
       <c r="L31" s="2"/>
-      <c r="N31" s="83" t="s">
+      <c r="N31" s="97" t="s">
         <v>812</v>
       </c>
-      <c r="O31" s="84"/>
-      <c r="P31" s="84"/>
-      <c r="Q31" s="85"/>
+      <c r="O31" s="104"/>
+      <c r="P31" s="104"/>
+      <c r="Q31" s="98"/>
     </row>
     <row r="32" spans="2:17" x14ac:dyDescent="0.25">
       <c r="B32" s="12"/>
@@ -10048,12 +10093,12 @@
       <c r="L32" s="31">
         <v>180000</v>
       </c>
-      <c r="N32" s="83" t="s">
+      <c r="N32" s="97" t="s">
         <v>813</v>
       </c>
-      <c r="O32" s="84"/>
-      <c r="P32" s="84"/>
-      <c r="Q32" s="85"/>
+      <c r="O32" s="104"/>
+      <c r="P32" s="104"/>
+      <c r="Q32" s="98"/>
     </row>
     <row r="33" spans="2:17" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B33" s="12"/>
@@ -10063,57 +10108,57 @@
       <c r="L33" s="31">
         <v>90000</v>
       </c>
-      <c r="N33" s="83" t="s">
+      <c r="N33" s="97" t="s">
         <v>814</v>
       </c>
-      <c r="O33" s="84"/>
-      <c r="P33" s="84"/>
-      <c r="Q33" s="85"/>
+      <c r="O33" s="104"/>
+      <c r="P33" s="104"/>
+      <c r="Q33" s="98"/>
     </row>
     <row r="34" spans="2:17" x14ac:dyDescent="0.25">
       <c r="B34" s="12"/>
       <c r="L34" s="31">
         <v>60000</v>
       </c>
-      <c r="N34" s="83" t="s">
+      <c r="N34" s="97" t="s">
         <v>815</v>
       </c>
-      <c r="O34" s="84"/>
-      <c r="P34" s="84"/>
-      <c r="Q34" s="85"/>
+      <c r="O34" s="104"/>
+      <c r="P34" s="104"/>
+      <c r="Q34" s="98"/>
     </row>
     <row r="35" spans="2:17" x14ac:dyDescent="0.25">
       <c r="B35" s="13"/>
       <c r="L35" s="31">
         <v>30000</v>
       </c>
-      <c r="N35" s="83" t="s">
+      <c r="N35" s="97" t="s">
         <v>816</v>
       </c>
-      <c r="O35" s="84"/>
-      <c r="P35" s="84"/>
-      <c r="Q35" s="85"/>
+      <c r="O35" s="104"/>
+      <c r="P35" s="104"/>
+      <c r="Q35" s="98"/>
     </row>
     <row r="36" spans="2:17" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B36" s="12"/>
       <c r="L36" s="33" t="s">
         <v>792</v>
       </c>
-      <c r="N36" s="83" t="s">
+      <c r="N36" s="97" t="s">
         <v>817</v>
       </c>
-      <c r="O36" s="84"/>
-      <c r="P36" s="84"/>
-      <c r="Q36" s="85"/>
+      <c r="O36" s="104"/>
+      <c r="P36" s="104"/>
+      <c r="Q36" s="98"/>
     </row>
     <row r="37" spans="2:17" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B37" s="13"/>
-      <c r="N37" s="86" t="s">
+      <c r="N37" s="89" t="s">
         <v>818</v>
       </c>
-      <c r="O37" s="87"/>
-      <c r="P37" s="87"/>
-      <c r="Q37" s="88"/>
+      <c r="O37" s="116"/>
+      <c r="P37" s="116"/>
+      <c r="Q37" s="90"/>
     </row>
     <row r="38" spans="2:17" x14ac:dyDescent="0.25">
       <c r="B38" s="12"/>
@@ -10132,35 +10177,22 @@
     </row>
   </sheetData>
   <mergeCells count="61">
-    <mergeCell ref="B2:D2"/>
-    <mergeCell ref="B4:D4"/>
-    <mergeCell ref="B5:D5"/>
-    <mergeCell ref="B6:D6"/>
-    <mergeCell ref="B7:D7"/>
-    <mergeCell ref="B3:D3"/>
-    <mergeCell ref="B27:C27"/>
-    <mergeCell ref="B15:D15"/>
-    <mergeCell ref="B16:D16"/>
-    <mergeCell ref="B17:D17"/>
-    <mergeCell ref="B18:D18"/>
-    <mergeCell ref="B21:C21"/>
-    <mergeCell ref="B22:C22"/>
-    <mergeCell ref="B23:C23"/>
-    <mergeCell ref="B24:C24"/>
-    <mergeCell ref="B25:C25"/>
-    <mergeCell ref="B20:C20"/>
-    <mergeCell ref="N5:P5"/>
-    <mergeCell ref="N6:P6"/>
-    <mergeCell ref="N7:P7"/>
-    <mergeCell ref="N8:P8"/>
-    <mergeCell ref="B26:C26"/>
-    <mergeCell ref="B12:D12"/>
-    <mergeCell ref="B13:D13"/>
-    <mergeCell ref="B14:D14"/>
-    <mergeCell ref="B8:D8"/>
-    <mergeCell ref="B9:D9"/>
-    <mergeCell ref="B10:D10"/>
-    <mergeCell ref="B11:D11"/>
+    <mergeCell ref="N36:Q36"/>
+    <mergeCell ref="N37:Q37"/>
+    <mergeCell ref="N21:Q21"/>
+    <mergeCell ref="N22:Q22"/>
+    <mergeCell ref="N23:Q23"/>
+    <mergeCell ref="N24:Q24"/>
+    <mergeCell ref="N25:Q25"/>
+    <mergeCell ref="N26:Q26"/>
+    <mergeCell ref="N27:Q27"/>
+    <mergeCell ref="N28:Q28"/>
+    <mergeCell ref="N29:Q29"/>
+    <mergeCell ref="N30:Q30"/>
+    <mergeCell ref="N31:Q31"/>
+    <mergeCell ref="N32:Q32"/>
+    <mergeCell ref="N33:Q33"/>
+    <mergeCell ref="N34:Q34"/>
     <mergeCell ref="N35:Q35"/>
     <mergeCell ref="N2:P2"/>
     <mergeCell ref="N3:P3"/>
@@ -10177,22 +10209,35 @@
     <mergeCell ref="N12:P12"/>
     <mergeCell ref="N13:P13"/>
     <mergeCell ref="N4:P4"/>
-    <mergeCell ref="N36:Q36"/>
-    <mergeCell ref="N37:Q37"/>
-    <mergeCell ref="N21:Q21"/>
-    <mergeCell ref="N22:Q22"/>
-    <mergeCell ref="N23:Q23"/>
-    <mergeCell ref="N24:Q24"/>
-    <mergeCell ref="N25:Q25"/>
-    <mergeCell ref="N26:Q26"/>
-    <mergeCell ref="N27:Q27"/>
-    <mergeCell ref="N28:Q28"/>
-    <mergeCell ref="N29:Q29"/>
-    <mergeCell ref="N30:Q30"/>
-    <mergeCell ref="N31:Q31"/>
-    <mergeCell ref="N32:Q32"/>
-    <mergeCell ref="N33:Q33"/>
-    <mergeCell ref="N34:Q34"/>
+    <mergeCell ref="N5:P5"/>
+    <mergeCell ref="N6:P6"/>
+    <mergeCell ref="N7:P7"/>
+    <mergeCell ref="N8:P8"/>
+    <mergeCell ref="B26:C26"/>
+    <mergeCell ref="B12:D12"/>
+    <mergeCell ref="B13:D13"/>
+    <mergeCell ref="B14:D14"/>
+    <mergeCell ref="B8:D8"/>
+    <mergeCell ref="B9:D9"/>
+    <mergeCell ref="B10:D10"/>
+    <mergeCell ref="B11:D11"/>
+    <mergeCell ref="B27:C27"/>
+    <mergeCell ref="B15:D15"/>
+    <mergeCell ref="B16:D16"/>
+    <mergeCell ref="B17:D17"/>
+    <mergeCell ref="B18:D18"/>
+    <mergeCell ref="B21:C21"/>
+    <mergeCell ref="B22:C22"/>
+    <mergeCell ref="B23:C23"/>
+    <mergeCell ref="B24:C24"/>
+    <mergeCell ref="B25:C25"/>
+    <mergeCell ref="B20:C20"/>
+    <mergeCell ref="B2:D2"/>
+    <mergeCell ref="B4:D4"/>
+    <mergeCell ref="B5:D5"/>
+    <mergeCell ref="B6:D6"/>
+    <mergeCell ref="B7:D7"/>
+    <mergeCell ref="B3:D3"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>

--- a/documentacion desarrollado/clases - diccionario de datos.xlsx
+++ b/documentacion desarrollado/clases - diccionario de datos.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\adsi\proyecto\documentacion desarrollado\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C9EC724C-099F-43EE-A1C7-558B8D71FE29}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{51E20FE4-376A-4578-ADAA-BB866AD3A2A2}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" activeTab="1" xr2:uid="{2FF41D06-D61B-4223-A4A5-12A9AB68D76C}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{2FF41D06-D61B-4223-A4A5-12A9AB68D76C}"/>
   </bookViews>
   <sheets>
     <sheet name="Diccionario de datos" sheetId="1" r:id="rId1"/>
@@ -3881,8 +3881,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{9CFD759A-78F0-4F71-BCD0-F7C29157BD1F}">
   <dimension ref="B3:BB130"/>
   <sheetViews>
-    <sheetView showGridLines="0" topLeftCell="U10" zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
-      <selection activeCell="V26" sqref="V26"/>
+    <sheetView showGridLines="0" tabSelected="1" topLeftCell="T10" zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
+      <selection activeCell="T44" sqref="T44"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -3904,7 +3904,7 @@
     <col min="16" max="16" width="10.42578125" customWidth="1"/>
     <col min="17" max="20" width="32.85546875" customWidth="1"/>
     <col min="22" max="22" width="41.28515625" customWidth="1"/>
-    <col min="23" max="23" width="13.42578125" customWidth="1"/>
+    <col min="23" max="23" width="63.85546875" bestFit="1" customWidth="1"/>
     <col min="24" max="24" width="14.85546875" bestFit="1" customWidth="1"/>
     <col min="25" max="25" width="47.5703125" bestFit="1" customWidth="1"/>
     <col min="27" max="27" width="37.28515625" customWidth="1"/>
@@ -9447,7 +9447,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D8F76CB4-6E73-48BB-89E3-7365BCD76DEB}">
   <dimension ref="B1:S42"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="L1" zoomScale="120" zoomScaleNormal="120" workbookViewId="0">
+    <sheetView topLeftCell="L1" zoomScale="120" zoomScaleNormal="120" workbookViewId="0">
       <selection activeCell="S3" sqref="S3"/>
     </sheetView>
   </sheetViews>
